--- a/datos/CLASIFICACIONES_BALANCES.xlsx
+++ b/datos/CLASIFICACIONES_BALANCES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renato\GitHub\scn_gt\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99036AB4-BE69-455A-A635-09085F4D3639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535A91DC-0034-4038-8127-11D4DFD51271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="711" yWindow="-103" windowWidth="21335" windowHeight="12549" xr2:uid="{6CAF9067-E9DD-4BAA-A4C4-ED4C1F61F977}"/>
+    <workbookView xWindow="3804" yWindow="-13068" windowWidth="23256" windowHeight="12576" xr2:uid="{6CAF9067-E9DD-4BAA-A4C4-ED4C1F61F977}"/>
   </bookViews>
   <sheets>
     <sheet name="filas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="208">
   <si>
     <t>OFERTA TOTAL</t>
   </si>
@@ -344,9 +344,6 @@
     <t>Caña De Azúcar Y Derivados</t>
   </si>
   <si>
-    <t>Otras Primarias</t>
-  </si>
-  <si>
     <t>Total Primarias</t>
   </si>
   <si>
@@ -566,9 +563,6 @@
     <t>id_npg4</t>
   </si>
   <si>
-    <t>P4901</t>
-  </si>
-  <si>
     <t>P5001</t>
   </si>
   <si>
@@ -639,6 +633,33 @@
   </si>
   <si>
     <t>Gasto de consumo final</t>
+  </si>
+  <si>
+    <t>Otras Primarias (inclulye solar)</t>
+  </si>
+  <si>
+    <t>P4104</t>
+  </si>
+  <si>
+    <t>energy_transaction</t>
+  </si>
+  <si>
+    <t>ntge</t>
+  </si>
+  <si>
+    <t>id_ntge</t>
+  </si>
+  <si>
+    <t>Residuos energéticos</t>
+  </si>
+  <si>
+    <t>Transformación de energéticos</t>
+  </si>
+  <si>
+    <t>Consumo final de energéticos</t>
+  </si>
+  <si>
+    <t>Consumo final de los hogares</t>
   </si>
 </sst>
 </file>
@@ -706,11 +727,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1025,13 +1047,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7235EAF2-435C-47D5-BA9B-1EA106F44974}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1047,7 +1069,7 @@
     <col min="9" max="9" width="9.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1064,22 +1086,28 @@
         <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+        <v>182</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1096,7 +1124,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>67</v>
@@ -1105,11 +1133,17 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1126,20 +1160,26 @@
         <v>68</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K3" s="2">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1156,20 +1196,26 @@
         <v>69</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H4" s="2">
         <v>2</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K4" s="2">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1186,20 +1232,26 @@
         <v>70</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H5" s="2">
         <v>2</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K5" s="2">
+        <v>6</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1221,11 +1273,17 @@
         <v>2</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K6" s="2">
+        <v>7</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1247,11 +1305,13 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1268,18 +1328,24 @@
         <v>73</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K8" s="2">
+        <v>2</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1296,22 +1362,28 @@
         <v>74</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H9" s="2">
         <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+        <v>183</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1328,22 +1400,28 @@
         <v>75</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H10" s="2">
         <v>2</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+        <v>183</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1360,20 +1438,26 @@
         <v>76</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H11" s="2">
         <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K11" s="2">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1390,20 +1474,26 @@
         <v>77</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H12" s="2">
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K12" s="2">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1420,20 +1510,26 @@
         <v>78</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H13" s="2">
         <v>2</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K13" s="2">
+        <v>2</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1450,20 +1546,26 @@
         <v>79</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H14" s="2">
         <v>2</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K14" s="2">
+        <v>2</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1480,20 +1582,26 @@
         <v>80</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H15" s="2">
         <v>2</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K15" s="2">
+        <v>2</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1515,11 +1623,13 @@
         <v>2</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1536,20 +1646,26 @@
         <v>82</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H17" s="2">
         <v>2</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K17" s="2">
+        <v>3</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1571,11 +1687,15 @@
         <v>2</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1592,20 +1712,24 @@
         <v>84</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H19" s="2">
         <v>2</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1622,20 +1746,26 @@
         <v>85</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H20" s="2">
         <v>2</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K20" s="2">
+        <v>3</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1652,20 +1782,26 @@
         <v>86</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H21" s="2">
         <v>2</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K21" s="2">
+        <v>3</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
@@ -1682,20 +1818,26 @@
         <v>87</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H22" s="2">
         <v>2</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K22" s="2">
+        <v>4</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -1712,20 +1854,26 @@
         <v>88</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H23" s="2">
         <v>2</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K23" s="2">
+        <v>3</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
@@ -1742,20 +1890,26 @@
         <v>89</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H24" s="2">
         <v>2</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K24" s="2">
+        <v>3</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -1772,20 +1926,26 @@
         <v>90</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H25" s="2">
         <v>2</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K25" s="2">
+        <v>3</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
@@ -1802,20 +1962,26 @@
         <v>91</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H26" s="2">
         <v>2</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K26" s="2">
+        <v>3</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
@@ -1832,20 +1998,26 @@
         <v>92</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H27" s="2">
         <v>2</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K27" s="2">
+        <v>3</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
@@ -1867,9 +2039,11 @@
         <v>2</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1879,472 +2053,478 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A871C8D-2B72-4908-8864-4A4A6020CCC3}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.07421875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3046875" customWidth="1"/>
+    <col min="4" max="4" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>174</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+      <c r="F12" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F13" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" s="2" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" s="2">
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B19" s="2">
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B21" s="2">
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" s="2">
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23" s="2">
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B24" s="2">
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
